--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_458__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_458__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,7 +5417,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.8770018219947815</c:v>
+                  <c:v>0.8770074248313904</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.3431703448295593</c:v>
@@ -5432,46 +5432,46 @@
                   <c:v>46.03069686889648</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.131674289703369</c:v>
+                  <c:v>1.131677985191345</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.7904097437858582</c:v>
+                  <c:v>0.7904078364372253</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6364590525627136</c:v>
+                  <c:v>0.6364553570747375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.6805504560470581</c:v>
+                  <c:v>0.680557906627655</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.5431461930274963</c:v>
+                  <c:v>-0.5431480407714844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.13970410823822</c:v>
+                  <c:v>1.139705896377563</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48.31904220581055</c:v>
+                  <c:v>48.31904602050781</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.6624525785446167</c:v>
+                  <c:v>0.6624506711959839</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5297476053237915</c:v>
+                  <c:v>0.5297513008117676</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>48.88937759399414</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-3.89362621307373</c:v>
+                  <c:v>-3.893628120422363</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.1663721054792404</c:v>
+                  <c:v>-0.1663758456707001</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>47.20399856567383</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4545139968395233</c:v>
+                  <c:v>0.4545177221298218</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-1.147129774093628</c:v>
@@ -5483,34 +5483,34 @@
                   <c:v>0.4532850682735443</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>41.42718505859375</c:v>
+                  <c:v>41.42718887329102</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.7873588800430298</c:v>
+                  <c:v>0.7873570322990417</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.4761680662631989</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2587413787841797</c:v>
+                  <c:v>0.2587432563304901</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.9799743890762329</c:v>
+                  <c:v>0.9799818396568298</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.15440368652344</c:v>
+                  <c:v>48.15439987182617</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0.6935630440711975</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>49.44148635864258</c:v>
+                  <c:v>49.44149017333984</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.3375144004821777</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.9114316701889038</c:v>
+                  <c:v>0.9114298224449158</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>2.621636867523193</c:v>
@@ -5519,19 +5519,19 @@
                   <c:v>-0.01563823595643044</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.6591201424598694</c:v>
+                  <c:v>0.6591238975524902</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>48.34771728515625</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.2972458302974701</c:v>
+                  <c:v>0.2972477078437805</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>28.17868041992188</c:v>
+                  <c:v>28.17868232727051</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>45.53349685668945</c:v>
+                  <c:v>45.53350067138672</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>-0.2696579396724701</c:v>
@@ -5540,16 +5540,16 @@
                   <c:v>44.73988723754883</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.3431796729564667</c:v>
+                  <c:v>0.3431777954101562</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.6609662771224976</c:v>
+                  <c:v>0.6609681844711304</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7422940731048584</c:v>
+                  <c:v>0.7422922253608704</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.594762563705444</c:v>
+                  <c:v>1.59476625919342</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>-0.4163638353347778</c:v>
@@ -5558,10 +5558,10 @@
                   <c:v>14.10553455352783</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.4575461447238922</c:v>
+                  <c:v>0.4575480222702026</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>49.00721740722656</c:v>
+                  <c:v>49.00722122192383</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.3818519413471222</c:v>
@@ -5570,34 +5570,34 @@
                   <c:v>0.4469521939754486</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.01022098399698734</c:v>
+                  <c:v>0.01022471394389868</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.332569479942322</c:v>
+                  <c:v>1.332575082778931</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.4644142091274261</c:v>
+                  <c:v>0.4644160866737366</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5511946678161621</c:v>
+                  <c:v>0.5511928200721741</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>35.70264053344727</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3226966559886932</c:v>
+                  <c:v>0.3226929306983948</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.3122146129608154</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5904730558395386</c:v>
+                  <c:v>0.5904711484909058</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>0.4522482454776764</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.4590790271759033</c:v>
+                  <c:v>0.4590771496295929</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.05078790336847305</c:v>
@@ -5606,40 +5606,40 @@
                   <c:v>0.4858725070953369</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.4158454239368439</c:v>
+                  <c:v>0.4158491492271423</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.6853019595146179</c:v>
+                  <c:v>0.6852982640266418</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.6912842392921448</c:v>
+                  <c:v>0.6912861466407776</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.409194231033325</c:v>
+                  <c:v>1.409192323684692</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.70278930664062</c:v>
+                  <c:v>48.70279312133789</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.5458837151527405</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8315062522888184</c:v>
+                  <c:v>0.8315100073814392</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.012787461280823</c:v>
+                  <c:v>1.01278555393219</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-0.6247779130935669</c:v>
+                  <c:v>-0.6247742176055908</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.3486621677875519</c:v>
+                  <c:v>0.3486659228801727</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>50.60345458984375</c:v>
+                  <c:v>50.60346221923828</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>45.83845520019531</c:v>
+                  <c:v>45.83845901489258</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.3401792049407959</c:v>
@@ -5648,16 +5648,16 @@
                   <c:v>43.48097991943359</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.75075888633728</c:v>
+                  <c:v>1.750757098197937</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4216057956218719</c:v>
+                  <c:v>0.4216113984584808</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0.3601027429103851</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.3443712592124939</c:v>
+                  <c:v>0.3443750143051147</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0.8243230581283569</c:v>
@@ -5675,16 +5675,16 @@
                   <c:v>40.47763442993164</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6572702527046204</c:v>
+                  <c:v>0.6572758555412292</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>-0.01461073011159897</c:v>
+                  <c:v>-0.01461259461939335</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>-0.03615479543805122</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.003509558970108628</c:v>
+                  <c:v>0.003513288451358676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8770018219947815</v>
+        <v>0.8770074248313904</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>1.131674289703369</v>
+        <v>1.131677985191345</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7904097437858582</v>
+        <v>0.7904078364372253</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6591,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6364590525627136</v>
+        <v>0.6364553570747375</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6805504560470581</v>
+        <v>0.680557906627655</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.5431461930274963</v>
+        <v>-0.5431480407714844</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.13970410823822</v>
+        <v>1.139705896377563</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6671,7 +6671,7 @@
         <v>50.4351</v>
       </c>
       <c r="F13">
-        <v>48.31904220581055</v>
+        <v>48.31904602050781</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6624525785446167</v>
+        <v>0.6624506711959839</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.5297476053237915</v>
+        <v>0.5297513008117676</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6751,7 +6751,7 @@
         <v>40.625</v>
       </c>
       <c r="F17">
-        <v>-3.89362621307373</v>
+        <v>-3.893628120422363</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>-0.1663721054792404</v>
+        <v>-0.1663758456707001</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4545139968395233</v>
+        <v>0.4545177221298218</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6891,7 +6891,7 @@
         <v>46.0768</v>
       </c>
       <c r="F24">
-        <v>41.42718505859375</v>
+        <v>41.42718887329102</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7873588800430298</v>
+        <v>0.7873570322990417</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.2587413787841797</v>
+        <v>0.2587432563304901</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.9799743890762329</v>
+        <v>0.9799818396568298</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>48.15440368652344</v>
+        <v>48.15439987182617</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7031,7 +7031,7 @@
         <v>52.8303</v>
       </c>
       <c r="F31">
-        <v>49.44148635864258</v>
+        <v>49.44149017333984</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.9114316701889038</v>
+        <v>0.9114298224449158</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.6591201424598694</v>
+        <v>0.6591238975524902</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.2972458302974701</v>
+        <v>0.2972477078437805</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7191,7 +7191,7 @@
         <v>45.1545</v>
       </c>
       <c r="F39">
-        <v>28.17868041992188</v>
+        <v>28.17868232727051</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7211,7 +7211,7 @@
         <v>54.5459</v>
       </c>
       <c r="F40">
-        <v>45.53349685668945</v>
+        <v>45.53350067138672</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.3431796729564667</v>
+        <v>0.3431777954101562</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6609662771224976</v>
+        <v>0.6609681844711304</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.7422940731048584</v>
+        <v>0.7422922253608704</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.594762563705444</v>
+        <v>1.59476625919342</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.4575461447238922</v>
+        <v>0.4575480222702026</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>49.00721740722656</v>
+        <v>49.00722122192383</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.01022098399698734</v>
+        <v>0.01022471394389868</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.332569479942322</v>
+        <v>1.332575082778931</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.4644142091274261</v>
+        <v>0.4644160866737366</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.5511946678161621</v>
+        <v>0.5511928200721741</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.3226966559886932</v>
+        <v>0.3226929306983948</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.5904730558395386</v>
+        <v>0.5904711484909058</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.4590790271759033</v>
+        <v>0.4590771496295929</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.4158454239368439</v>
+        <v>0.4158491492271423</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.6853019595146179</v>
+        <v>0.6852982640266418</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6912842392921448</v>
+        <v>0.6912861466407776</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.409194231033325</v>
+        <v>1.409192323684692</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>48.70278930664062</v>
+        <v>48.70279312133789</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.8315062522888184</v>
+        <v>0.8315100073814392</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.012787461280823</v>
+        <v>1.01278555393219</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-0.6247779130935669</v>
+        <v>-0.6247742176055908</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.3486621677875519</v>
+        <v>0.3486659228801727</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>50.60345458984375</v>
+        <v>50.60346221923828</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>45.83845520019531</v>
+        <v>45.83845901489258</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.75075888633728</v>
+        <v>1.750757098197937</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.4216057956218719</v>
+        <v>0.4216113984584808</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.3443712592124939</v>
+        <v>0.3443750143051147</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.6572702527046204</v>
+        <v>0.6572758555412292</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>-0.01461073011159897</v>
+        <v>-0.01461259461939335</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.003509558970108628</v>
+        <v>0.003513288451358676</v>
       </c>
     </row>
     <row r="92" spans="1:6">
